--- a/src/test/resources/data/Book1.xlsx
+++ b/src/test/resources/data/Book1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\workspace2\ExcelReader\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Automation\eclipse-directories\ExcelReader\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +40,9 @@
   </si>
   <si>
     <t>Dipan</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -358,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,4 +405,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>11232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>